--- a/cost/trainAir-spec&cost.xlsx
+++ b/cost/trainAir-spec&cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tain_airl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\tobedeleted\build_env_and_tools\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C235237-F91C-492B-8F8C-232FDDAF408F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE54CE-11A6-4847-B273-9AFBD5235ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>TFT</t>
-  </si>
-  <si>
-    <t>PCB+patch</t>
   </si>
   <si>
     <t>power</t>
@@ -167,14 +164,65 @@
     <t>电容+电阻</t>
   </si>
   <si>
-    <t>1.7+5</t>
+    <t>1.7+6</t>
+  </si>
+  <si>
+    <t>SMT fee</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>insert point</t>
+  </si>
+  <si>
+    <t>power pcb</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>meta types</t>
+  </si>
+  <si>
+    <t>total fee</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>main pcb</t>
+  </si>
+  <si>
+    <t>工程费100元，物料费用是220元，贴片是345元（现在是0.015一个点），插件1480元（0.04一个点），钢网是80元</t>
+  </si>
+  <si>
+    <t>engine fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal net </t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>smt</t>
+  </si>
+  <si>
+    <t>举例：有5片板子需要SMT贴片，每片板子上200个焊点。那么，5片 x 200个焊点 = 总共1000个焊点，则焊点费：1000 x 0.01 = 10元</t>
+  </si>
+  <si>
+    <t>SMT总计：10焊点费 + 50工程费 + 0激光钢网 = ￥ 60元</t>
+  </si>
+  <si>
+    <t>1*2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +237,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +263,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -391,11 +457,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -404,30 +538,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -437,14 +567,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,27 +580,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -485,11 +593,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,8 +614,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -718,7 +863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -920,332 +1065,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="40"/>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>17</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15"/>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <f>I15</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14"/>
+      <c r="C5" s="7">
+        <f>I16</f>
+        <v>15.7</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
         <v>1.7</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J6" s="15">
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C9" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="19"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="19"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
         <v>1.2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D13" s="9"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21">
-        <f>SUM(C2:C13)</f>
-        <v>115.2</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13">
+        <f>SUM(C2:C14)</f>
+        <v>110.70000000000002</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29">
-        <f>SUM(I3:I14)</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J15" s="30">
-        <f>SUM(J3:J14)</f>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="G15" s="23"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="6:14">
+      <c r="G16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <f>SUM(I4:I15)</f>
+        <v>15.7</v>
+      </c>
+      <c r="J16" s="17">
+        <f>SUM(J4:J15)</f>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="H20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="29">
+        <v>46</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="30">
+        <f>C22*D22*E22</f>
+        <v>690</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="29">
+        <v>46</v>
+      </c>
+      <c r="J22" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K22" s="34">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="30">
+        <f>I22*J22*K22</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29">
+        <v>74</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="E23" s="29">
+        <f>E22</f>
+        <v>1000</v>
+      </c>
+      <c r="F23" s="30">
+        <f>C23*D23*E23</f>
+        <v>2960</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="29">
+        <v>74</v>
+      </c>
+      <c r="J23" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="K23" s="29">
+        <f>K22</f>
+        <v>1000</v>
+      </c>
+      <c r="L23" s="30">
+        <f>I23*J23*K23</f>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="29">
+        <v>22</v>
+      </c>
+      <c r="D24" s="29">
+        <v>10</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" ref="F24:F26" si="0">C24*D24*E24</f>
+        <v>220</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="29">
+        <v>22</v>
+      </c>
+      <c r="J24" s="29">
+        <v>10</v>
+      </c>
+      <c r="K24" s="29">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30">
+        <f t="shared" ref="L24:L26" si="1">I24*J24*K24</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <v>100</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <f>D25*E25</f>
+        <v>100</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="33">
+        <v>100</v>
+      </c>
+      <c r="K25" s="29">
+        <v>1</v>
+      </c>
+      <c r="L25" s="30">
+        <f>J25*K25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33">
+        <v>80</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30">
+        <f>D26*E26</f>
+        <v>80</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="33">
+        <v>80</v>
+      </c>
+      <c r="K26" s="29">
+        <v>1</v>
+      </c>
+      <c r="L26" s="30">
+        <f>J26*K26</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="38">
+        <f>SUM(F22:F26)</f>
+        <v>4050</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="38">
+        <f>SUM(L22:L26)</f>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.5">
+      <c r="G30" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="37" spans="1:6">
+      <c r="B37" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="29">
+        <v>92</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="30">
+        <f>C39*D39*E39</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="29">
+        <v>74</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="E40" s="29">
+        <f>E39</f>
+        <v>1000</v>
+      </c>
+      <c r="F40" s="30">
+        <f>C40*D40*E40</f>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1</v>
+      </c>
+      <c r="F41" s="30">
+        <f t="shared" ref="F41:F43" si="2">C41*D41*E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="33">
+        <v>0</v>
+      </c>
+      <c r="D42" s="33">
+        <v>50</v>
+      </c>
+      <c r="E42" s="29">
+        <v>1</v>
+      </c>
+      <c r="F42" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="33">
+        <v>0</v>
+      </c>
+      <c r="D43" s="33">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="38">
+        <f>SUM(F39:F43)</f>
+        <v>3880</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="8">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A2:A13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,10 +1813,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1280,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1288,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1299,10 +1843,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1310,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1321,10 +1865,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1">
@@ -1332,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1343,10 +1887,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1354,10 +1898,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1365,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/cost/trainAir-spec&cost.xlsx
+++ b/cost/trainAir-spec&cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\tobedeleted\build_env_and_tools\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE54CE-11A6-4847-B273-9AFBD5235ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36AB87-37A8-4B66-838D-C334F28376FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
   <si>
     <t>TFT</t>
   </si>
@@ -216,13 +216,16 @@
   </si>
   <si>
     <t>1*2</t>
+  </si>
+  <si>
+    <t>嘉立创的价格 嘉立创不提供自带料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +245,14 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -276,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -563,11 +574,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -596,14 +687,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,6 +713,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,26 +736,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,22 +1201,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="40"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1113,10 +1227,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1239,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
@@ -1133,8 +1247,8 @@
         <v>1.7</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I3" s="3">
@@ -1143,7 +1257,7 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
@@ -1152,8 +1266,8 @@
       </c>
       <c r="D4" s="8"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="39" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="25" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="3">
@@ -1164,7 +1278,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1288,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1303,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="19"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1312,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1324,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="19"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1333,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1346,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="19"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1369,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="19"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1264,13 +1378,13 @@
       </c>
       <c r="D9" s="9"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="19"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1393,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1294,7 +1408,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="19"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1303,13 +1417,13 @@
       </c>
       <c r="D11" s="9"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1319,13 +1433,13 @@
       <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1447,7 @@
         <v>1.2</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="9"/>
@@ -1350,13 +1464,13 @@
       </c>
       <c r="D14" s="8"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="12"/>
@@ -1366,7 +1480,7 @@
       </c>
       <c r="D15" s="14"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
@@ -1389,7 +1503,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:20">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1400,396 +1514,884 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
+    <row r="18" spans="1:20" ht="23.25">
+      <c r="A18" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="44"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="H20" s="35" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="43"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="B22" s="28" t="s">
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="44"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="43"/>
+      <c r="B22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="19">
         <v>46</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="23">
         <v>1000</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="20">
         <f>C22*D22*E22</f>
         <v>690</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="19">
         <v>46</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="23">
         <v>1000</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="20">
         <f>I22*J22*K22</f>
         <v>690</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="B23" s="28" t="s">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="44"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="43"/>
+      <c r="B23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="19">
         <v>74</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="19">
         <v>0.04</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="19">
         <f>E22</f>
         <v>1000</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="20">
         <f>C23*D23*E23</f>
         <v>2960</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="19">
         <v>74</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="19">
         <v>0.04</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="19">
         <f>K22</f>
         <v>1000</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="20">
         <f>I23*J23*K23</f>
         <v>2960</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="B24" s="28" t="s">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="44"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="43"/>
+      <c r="B24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="19">
         <v>22</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="19">
         <v>10</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="F24" s="30">
-        <f t="shared" ref="F24:F26" si="0">C24*D24*E24</f>
+      <c r="F24" s="20">
+        <f t="shared" ref="F24" si="0">C24*D24*E24</f>
         <v>220</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="19">
         <v>22</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="19">
         <v>10</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="19">
         <v>1</v>
       </c>
-      <c r="L24" s="30">
-        <f t="shared" ref="L24:L26" si="1">I24*J24*K24</f>
+      <c r="L24" s="20">
+        <f t="shared" ref="L24" si="1">I24*J24*K24</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="B25" s="28" t="s">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="43"/>
+      <c r="B25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="22">
         <v>100</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="20">
         <f>D25*E25</f>
         <v>100</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="33">
+      <c r="I25" s="19"/>
+      <c r="J25" s="22">
         <v>100</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="19">
         <v>1</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="20">
         <f>J25*K25</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="B26" s="28" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="43"/>
+      <c r="B26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="22">
         <v>0</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="22">
         <v>80</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="19">
         <v>1</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="20">
         <f>D26*E26</f>
         <v>80</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="33">
+      <c r="I26" s="19"/>
+      <c r="J26" s="22">
         <v>80</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="19">
         <v>1</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="20">
         <f>J26*K26</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A27" s="43"/>
       <c r="B27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="38">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24">
         <f>SUM(F22:F26)</f>
         <v>4050</v>
       </c>
+      <c r="G27" s="19"/>
       <c r="H27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="38">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="24">
         <f>SUM(L22:L26)</f>
         <v>4050</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.5">
-      <c r="G30" s="32" t="s">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="43"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="43"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" ht="16.5">
+      <c r="A30" s="43"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="47"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="43"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="37" spans="1:6">
-      <c r="B37" s="35" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="44"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="43"/>
+      <c r="B37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="44"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="43"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="28" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="44"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="43"/>
+      <c r="B39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="19">
         <v>92</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="19">
         <v>0.01</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="23">
         <v>1000</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="20">
         <f>C39*D39*E39</f>
         <v>920</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="28" t="s">
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="44"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="43"/>
+      <c r="B40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="19">
         <v>74</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="19">
         <v>0.04</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="19">
         <f>E39</f>
         <v>1000</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="20">
         <f>C40*D40*E40</f>
         <v>2960</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="28" t="s">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="44"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="43"/>
+      <c r="B41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="19">
         <v>0</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="19">
         <v>0</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="19">
         <v>1</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="20">
         <f t="shared" ref="F41:F43" si="2">C41*D41*E41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="28" t="s">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="44"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="43"/>
+      <c r="B42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="22">
         <v>0</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="22">
         <v>50</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="19">
         <v>1</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="28" t="s">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="43"/>
+      <c r="B43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="22">
         <v>0</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="22">
         <v>1</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="19">
         <v>1</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="44"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A44" s="43"/>
       <c r="B44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="38">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="24">
         <f>SUM(F39:F43)</f>
         <v>3880</v>
       </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="43"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="43"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="44"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="A18:T18"/>
+    <mergeCell ref="A32:T32"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
